--- a/document/data.xlsx
+++ b/document/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5724" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4092" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -419,6 +419,11 @@
           <t>D1</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
